--- a/documents/12.UI/山东省人力资源采集系统-设计图/设计图版本控制.xlsx
+++ b/documents/12.UI/山东省人力资源采集系统-设计图/设计图版本控制.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp\www\CM-Git\documents\12.UI\山东省人力资源采集系统-设计图\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/CM-Git/documents/12.UI/山东省人力资源采集系统-设计图/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>创建时间</t>
   </si>
@@ -72,10 +77,6 @@
   </si>
   <si>
     <t>设计图.psd</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>各页面设计图</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -179,12 +180,64 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>2016/3/19/15:15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄凌云</t>
+    <rPh sb="0" eb="1">
+      <t>h l y</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制企业通知、企业历史填报、企业历史数据页面</t>
+    <rPh sb="0" eb="1">
+      <t>hui zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi ye</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tong zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qi'ye</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>li'shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tian'bao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>qi'ye</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>li'shi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ye'mian</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>mian</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>各页面设计图</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -342,7 +395,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1">
+  <tableStyles count="1" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
@@ -1531,7 +1584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV12"/>
@@ -1540,16 +1593,16 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="21.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="81.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="21.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="81.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="35" style="1" customWidth="1"/>
-    <col min="6" max="256" width="16.28515625" style="1" customWidth="1"/>
+    <col min="6" max="256" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.6" customHeight="1">
+    <row r="1" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
@@ -1558,7 +1611,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:5" ht="39.6" customHeight="1">
+    <row r="2" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1571,20 +1624,20 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5" ht="39.6" customHeight="1">
+    <row r="3" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="39.6" customHeight="1">
+    <row r="4" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1601,7 +1654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39.6" customHeight="1">
+    <row r="5" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1616,49 +1669,57 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="39.6" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6"/>
+    <row r="6" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="39.6" customHeight="1">
+    <row r="7" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="39.6" customHeight="1">
+    <row r="8" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="39.6" customHeight="1">
+    <row r="9" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="39.6" customHeight="1">
+    <row r="10" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="39.6" customHeight="1">
+    <row r="11" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="39.6" customHeight="1">
+    <row r="12" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>

--- a/documents/12.UI/山东省人力资源采集系统-设计图/设计图版本控制.xlsx
+++ b/documents/12.UI/山东省人力资源采集系统-设计图/设计图版本控制.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/CM-Git/documents/12.UI/山东省人力资源采集系统-设计图/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp\www\CM-Git\documents\12.UI\山东省人力资源采集系统-设计图\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14280"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>创建时间</t>
   </si>
@@ -232,12 +232,20 @@
     <t>各页面设计图</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>李奕鋆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制企业备案页面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -327,7 +335,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -366,6 +374,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1584,25 +1595,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="21.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="81.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="21.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="81.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="35" style="1" customWidth="1"/>
-    <col min="6" max="256" width="16.33203125" style="1" customWidth="1"/>
+    <col min="6" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="39.6" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
@@ -1611,7 +1622,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="39.6" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1624,7 +1635,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="39.6" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1637,7 +1648,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="39.6" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1654,7 +1665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="39.6" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1669,7 +1680,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="39.6" customHeight="1">
       <c r="A6" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -1684,42 +1695,50 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6"/>
+    <row r="7" spans="1:5" ht="39.6" customHeight="1">
+      <c r="A7" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="B7" s="7">
+        <v>40989.03402777778</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="39.6" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="39.6" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="39.6" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="39.6" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="39.6" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>

--- a/documents/12.UI/山东省人力资源采集系统-设计图/设计图版本控制.xlsx
+++ b/documents/12.UI/山东省人力资源采集系统-设计图/设计图版本控制.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>创建时间</t>
   </si>
@@ -238,6 +238,14 @@
   </si>
   <si>
     <t>绘制企业备案页面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>李奕鋆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制省用户管理页</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -363,6 +371,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -374,9 +385,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1601,7 +1609,7 @@
   <dimension ref="A1:IV12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1"/>
@@ -1614,13 +1622,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.6" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" ht="39.6" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1629,11 +1637,11 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="39.6" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -1642,11 +1650,11 @@
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" ht="39.6" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -1705,16 +1713,24 @@
       <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="39.6" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="B8" s="7">
+        <v>40992.816666666666</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="39.6" customHeight="1">

--- a/documents/12.UI/山东省人力资源采集系统-设计图/设计图版本控制.xlsx
+++ b/documents/12.UI/山东省人力资源采集系统-设计图/设计图版本控制.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>创建时间</t>
   </si>
@@ -246,6 +246,18 @@
   </si>
   <si>
     <t>绘制省用户管理页</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业备份页2.0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>李奕鋆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改企业备份页，添加“已备份信息”板块</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1608,8 +1620,8 @@
   </sheetPr>
   <dimension ref="A1:IV12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1"/>
@@ -1734,10 +1746,18 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="39.6" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="7">
+        <v>40996.8125</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="39.6" customHeight="1">

--- a/documents/12.UI/山东省人力资源采集系统-设计图/设计图版本控制.xlsx
+++ b/documents/12.UI/山东省人力资源采集系统-设计图/设计图版本控制.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>创建时间</t>
   </si>
@@ -258,6 +258,119 @@
   </si>
   <si>
     <t>修改企业备份页，添加“已备份信息”板块</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0&amp;2.0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>李奕鋆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>去除登录页原型图，整理设计图（改变存放路径、统一名称）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>‎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="SimHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>‎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="SimHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>‎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="SimHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>‎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="SimHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>‏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="SimHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>21:44:41</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -355,7 +468,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -396,6 +509,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1621,13 +1737,14 @@
   <dimension ref="A1:IV12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="21.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="81.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="35" style="1" customWidth="1"/>
     <col min="6" max="256" width="16.28515625" style="1" customWidth="1"/>
@@ -1761,10 +1878,18 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="39.6" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="39.6" customHeight="1">
